--- a/documents/Book1.xlsx
+++ b/documents/Book1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yug/Documents/GitHub/name_transliteration/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B023E68D-E6A5-9B40-BE3D-9CA95E176B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EDB467-8F70-F04B-9885-6F8BDB28BCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="3240" windowWidth="45480" windowHeight="17440" xr2:uid="{DDC2C3BF-85C4-1240-BBD4-93731ECBB5A1}"/>
+    <workbookView xWindow="51200" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{DDC2C3BF-85C4-1240-BBD4-93731ECBB5A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>Test set 1 loss</t>
   </si>
@@ -62,15 +63,43 @@
   <si>
     <t>Test set 3 accuracy</t>
   </si>
+  <si>
+    <t>from the iterative model experiment</t>
+  </si>
+  <si>
+    <t>test set 1</t>
+  </si>
+  <si>
+    <t>test set 2</t>
+  </si>
+  <si>
+    <t>test set 3</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>evaluation results from model 1 (using model trained on normally cleansed data to cleanse)</t>
+  </si>
+  <si>
+    <t>evaluation results from model 2 (using previous model to cleanse)</t>
+  </si>
+  <si>
+    <t>evaluation results from model 3 (using model that is trained on data that has been cleansed using the two models)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.00000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -94,6 +123,12 @@
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -179,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
@@ -202,21 +237,41 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -766,6 +821,44 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="2000"/>
+              <a:t>Accuracy of the</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="2000" baseline="0"/>
+              <a:t> 3 models against the 3 test sets</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="2000"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25552543817485368"/>
+          <c:y val="5.6710775047258979E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -797,7 +890,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.7382138941493067E-2"/>
+          <c:y val="0.14005671077504728"/>
+          <c:w val="0.84709857470347849"/>
+          <c:h val="0.70856302933777893"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -816,7 +919,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -831,7 +934,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="38100">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
@@ -860,7 +963,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$14:$D$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.96615523000000003</c:v>
@@ -896,7 +999,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -911,7 +1014,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="38100">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
@@ -940,7 +1043,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$15:$D$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.96547835999999998</c:v>
@@ -976,7 +1079,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -991,7 +1094,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="38100">
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
@@ -1020,7 +1123,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$16:$D$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.95690435100000004</c:v>
@@ -1057,7 +1160,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1076,39 +1179,6 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="351646415"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -1134,7 +1204,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1184,7 +1309,17 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.75851888767068665"/>
+          <c:y val="0.18127562032061681"/>
+          <c:w val="0.10350642878500949"/>
+          <c:h val="0.16186267359302203"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1255,6 +1390,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -2410,16 +2546,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>857250</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>457200</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1041400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1003300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2445,6 +2581,356 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.28354</cdr:x>
+      <cdr:y>0.86011</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.37468</cdr:x>
+      <cdr:y>0.99622</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38EC7F50-704B-254B-B261-92FD11BF10BB}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2844800" y="5778500"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>test set 1</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.52532</cdr:x>
+      <cdr:y>0.86389</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.61646</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B455507-66E5-D640-836D-F0EFCE33AFF4}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5270500" y="5803900"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>test set 2</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.76962</cdr:x>
+      <cdr:y>0.86389</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.86076</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{724303B0-6A26-7B4A-BCAD-FBF4AD19636D}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7721600" y="5803900"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>test set 3</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.36456</cdr:x>
+      <cdr:y>0.93762</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.68608</cdr:x>
+      <cdr:y>0.93951</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46A313CB-8DAB-A043-980E-CF967F6EA33A}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3657600" y="6299200"/>
+          <a:ext cx="3225800" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.4557</cdr:x>
+      <cdr:y>0.9414</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.56203</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{452ABD53-7C71-AF40-8CB9-EA2D899F07B4}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4572000" y="6324600"/>
+          <a:ext cx="1066800" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Increasing levels</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> of noise</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2746,8 +3232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B4744E-7DBE-634D-9979-EE6D37C76D8F}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2829,13 +3315,13 @@
       <c r="A14" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="13">
         <v>0.96615523000000003</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="14">
         <v>0.93132913100000003</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="14">
         <v>0.88382983199999998</v>
       </c>
     </row>
@@ -2843,13 +3329,13 @@
       <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="15">
         <v>0.96547835999999998</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="16">
         <v>0.95537972400000004</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="15">
         <v>0.90793919499999998</v>
       </c>
     </row>
@@ -2857,13 +3343,13 @@
       <c r="A16" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="17">
         <v>0.95690435100000004</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="17">
         <v>0.94319617700000002</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="18">
         <v>0.92437040800000003</v>
       </c>
     </row>
@@ -2932,4 +3418,165 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64CE0E6F-7C16-EA44-AB00-FA5952C5F586}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="19">
+        <v>0.186787024140357</v>
+      </c>
+      <c r="C7" s="20">
+        <v>0.96175950765609697</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="19">
+        <v>0.23313584923744199</v>
+      </c>
+      <c r="C8" s="19">
+        <v>0.955128192901611</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="19">
+        <v>0.29326751828193598</v>
+      </c>
+      <c r="C9" s="19">
+        <v>0.94486647844314497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0.41027367115020702</v>
+      </c>
+      <c r="C14" s="19">
+        <v>0.93987619876861495</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="19">
+        <v>0.47243374586105302</v>
+      </c>
+      <c r="C15" s="19">
+        <v>0.93482905626296997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="20">
+        <v>0.53904467821121205</v>
+      </c>
+      <c r="C16" s="19">
+        <v>0.92983365058898904</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="19">
+        <v>0.61318093538284302</v>
+      </c>
+      <c r="C21" s="19">
+        <v>0.94153404235839799</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="19">
+        <v>0.71247541904449396</v>
+      </c>
+      <c r="C22" s="19">
+        <v>0.93614399433135898</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="19">
+        <v>0.82431882619857699</v>
+      </c>
+      <c r="C23" s="19">
+        <v>0.93087315559387196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>